--- a/CCNA/osi.xlsx
+++ b/CCNA/osi.xlsx
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Segments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,15 +159,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Packets(Datagrams)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ethernet Frames</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://tools.ietf.org/html/</t>
+  </si>
+  <si>
+    <t>Segments(TCP) /Datagrams(UDP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packets(IP) /Messages(ICMP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -225,26 +225,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -372,6 +372,196 @@
         <a:xfrm>
           <a:off x="0" y="13544550"/>
           <a:ext cx="9000000" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2770156</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>37195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18345150"/>
+          <a:ext cx="12952381" cy="7238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2665394</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>37217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25888950"/>
+          <a:ext cx="12847619" cy="7066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2551488</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>151717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17830800"/>
+          <a:ext cx="9695238" cy="5466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2456250</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>123424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23488650"/>
+          <a:ext cx="9600000" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2541584</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>151545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42348150"/>
+          <a:ext cx="12723809" cy="6838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,7 +862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -685,31 +877,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -719,20 +911,20 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -742,12 +934,12 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -757,12 +949,12 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -775,17 +967,17 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -798,17 +990,17 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -819,19 +1011,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -843,21 +1035,21 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
